--- a/dados/csv/2023/analise_descritiva/dados/panorama.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/panorama.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>modalidade</t>
   </si>
@@ -34,25 +34,43 @@
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>media_sucesso</t>
-  </si>
-  <si>
-    <t>std_sucesso</t>
-  </si>
-  <si>
-    <t>min_sucesso</t>
-  </si>
-  <si>
-    <t>max_sucesso</t>
+    <t>arrecadado_avg</t>
+  </si>
+  <si>
+    <t>arrecadado_std</t>
+  </si>
+  <si>
+    <t>arrecadado_min</t>
+  </si>
+  <si>
+    <t>arrecadado_max</t>
   </si>
   <si>
     <t>apoio_medio</t>
   </si>
   <si>
+    <t>apoio_std</t>
+  </si>
+  <si>
+    <t>apoio_min</t>
+  </si>
+  <si>
+    <t>apoio_max</t>
+  </si>
+  <si>
     <t>contribuicoes</t>
   </si>
   <si>
-    <t>media_contribuicoes</t>
+    <t>contribuicoes_med</t>
+  </si>
+  <si>
+    <t>contribuicoes_std</t>
+  </si>
+  <si>
+    <t>contribuicoes_min</t>
+  </si>
+  <si>
+    <t>contribuicoes_max</t>
   </si>
   <si>
     <t>menor_ano</t>
@@ -433,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,11 +467,17 @@
     <col min="9" max="9" width="9.140625" style="3"/>
     <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -499,10 +523,28 @@
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>1335</v>
@@ -532,24 +574,42 @@
         <v>679297.6600721752</v>
       </c>
       <c r="K2" s="3">
-        <v>91.30338044842225</v>
-      </c>
-      <c r="L2" s="1">
+        <v>91.85574933975617</v>
+      </c>
+      <c r="L2" s="3">
+        <v>49.08980856017526</v>
+      </c>
+      <c r="M2" s="3">
+        <v>13.93896149503088</v>
+      </c>
+      <c r="N2" s="3">
+        <v>792.0360759681182</v>
+      </c>
+      <c r="O2" s="1">
         <v>263553</v>
       </c>
-      <c r="M2" s="1">
+      <c r="P2" s="1">
         <v>317.533734939759</v>
       </c>
-      <c r="N2">
+      <c r="Q2" s="1">
+        <v>423.019225146675</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>6494</v>
+      </c>
+      <c r="T2">
         <v>2011</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>1468</v>
@@ -579,24 +639,42 @@
         <v>708972.7845446636</v>
       </c>
       <c r="K3" s="3">
-        <v>90.1669167946294</v>
-      </c>
-      <c r="L3" s="1">
+        <v>77.41063997458096</v>
+      </c>
+      <c r="L3" s="3">
+        <v>39.50983355883143</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10.77163914429046</v>
+      </c>
+      <c r="N3" s="3">
+        <v>461.5197709071476</v>
+      </c>
+      <c r="O3" s="1">
         <v>203646</v>
       </c>
-      <c r="M3" s="1">
+      <c r="P3" s="1">
         <v>147.2494577006508</v>
       </c>
-      <c r="N3">
+      <c r="Q3" s="1">
+        <v>327.6748910926806</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>7954</v>
+      </c>
+      <c r="T3">
         <v>2016</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>684</v>
@@ -626,18 +704,36 @@
         <v>5087.076865717208</v>
       </c>
       <c r="K4" s="3">
-        <v>19.55931057734819</v>
-      </c>
-      <c r="L4" s="1">
+        <v>21.28348419490777</v>
+      </c>
+      <c r="L4" s="3">
+        <v>15.01968006252796</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1.011042153300025</v>
+      </c>
+      <c r="N4" s="3">
+        <v>84.0771316599004</v>
+      </c>
+      <c r="O4" s="1">
         <v>2208</v>
       </c>
-      <c r="M4" s="1">
+      <c r="P4" s="1">
         <v>14.52631578947368</v>
       </c>
-      <c r="N4">
+      <c r="Q4" s="1">
+        <v>31.86830254134198</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>208</v>
+      </c>
+      <c r="T4">
         <v>2016</v>
       </c>
-      <c r="O4">
+      <c r="U4">
         <v>2023</v>
       </c>
     </row>

--- a/dados/csv/2023/analise_descritiva/dados/panorama.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/panorama.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>modalidade</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta_avg</t>
+  </si>
+  <si>
+    <t>meta_std</t>
+  </si>
+  <si>
+    <t>meta_min</t>
+  </si>
+  <si>
+    <t>meta_max</t>
   </si>
   <si>
     <t>arrecadado_sucesso</t>
@@ -451,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,14 +485,19 @@
     <col min="12" max="12" width="9.140625" style="3"/>
     <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="9.140625" style="3"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:26">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -541,10 +561,25 @@
       <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>1335</v>
@@ -559,57 +594,72 @@
         <v>0.6217228464419475</v>
       </c>
       <c r="F2" s="3">
+        <v>13973042.60019265</v>
+      </c>
+      <c r="G2" s="3">
+        <v>16834.99108456945</v>
+      </c>
+      <c r="H2" s="3">
+        <v>17015.69760983049</v>
+      </c>
+      <c r="I2" s="3">
+        <v>31.89582864100442</v>
+      </c>
+      <c r="J2" s="3">
+        <v>189313.7035611726</v>
+      </c>
+      <c r="K2" s="3">
         <v>24063279.82732303</v>
       </c>
-      <c r="G2" s="3">
+      <c r="L2" s="3">
         <v>28991.90340641329</v>
       </c>
-      <c r="H2" s="3">
+      <c r="M2" s="3">
         <v>44961.93536949201</v>
       </c>
-      <c r="I2" s="3">
+      <c r="N2" s="3">
         <v>41.81688448509265</v>
       </c>
-      <c r="J2" s="3">
+      <c r="O2" s="3">
         <v>679297.6600721752</v>
       </c>
-      <c r="K2" s="3">
+      <c r="P2" s="3">
         <v>91.85574933975617</v>
       </c>
-      <c r="L2" s="3">
+      <c r="Q2" s="3">
         <v>49.08980856017526</v>
       </c>
-      <c r="M2" s="3">
+      <c r="R2" s="3">
         <v>13.93896149503088</v>
       </c>
-      <c r="N2" s="3">
+      <c r="S2" s="3">
         <v>792.0360759681182</v>
       </c>
-      <c r="O2" s="1">
+      <c r="T2" s="1">
         <v>263553</v>
       </c>
-      <c r="P2" s="1">
+      <c r="U2" s="1">
         <v>317.533734939759</v>
       </c>
-      <c r="Q2" s="1">
-        <v>423.019225146675</v>
-      </c>
-      <c r="R2" s="1">
+      <c r="V2" s="1">
+        <v>423.0192251466749</v>
+      </c>
+      <c r="W2" s="1">
         <v>1</v>
       </c>
-      <c r="S2" s="1">
+      <c r="X2" s="1">
         <v>6494</v>
       </c>
-      <c r="T2">
+      <c r="Y2">
         <v>2011</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>1468</v>
@@ -624,57 +674,72 @@
         <v>0.9420980926430518</v>
       </c>
       <c r="F3" s="3">
+        <v>15599716.7029188</v>
+      </c>
+      <c r="G3" s="3">
+        <v>11279.62162177787</v>
+      </c>
+      <c r="H3" s="3">
+        <v>16430.30708090436</v>
+      </c>
+      <c r="I3" s="3">
+        <v>12.04441558726698</v>
+      </c>
+      <c r="J3" s="3">
+        <v>198811.9434626772</v>
+      </c>
+      <c r="K3" s="3">
         <v>18362131.9375591</v>
       </c>
-      <c r="G3" s="3">
+      <c r="L3" s="3">
         <v>13277.02960054888</v>
       </c>
-      <c r="H3" s="3">
+      <c r="M3" s="3">
         <v>33934.82811955066</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
         <v>10.77163914429046</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="3">
         <v>708972.7845446636</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>77.41063997458096</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
         <v>39.50983355883143</v>
       </c>
-      <c r="M3" s="3">
+      <c r="R3" s="3">
         <v>10.77163914429046</v>
       </c>
-      <c r="N3" s="3">
+      <c r="S3" s="3">
         <v>461.5197709071476</v>
       </c>
-      <c r="O3" s="1">
+      <c r="T3" s="1">
         <v>203646</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>147.2494577006508</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="V3" s="1">
         <v>327.6748910926806</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" s="1">
+      <c r="X3" s="1">
         <v>7954</v>
       </c>
-      <c r="T3">
+      <c r="Y3">
         <v>2016</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>684</v>
@@ -689,51 +754,66 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="F4" s="3">
+        <v>165199.0578149446</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1205.832538795216</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2163.288658625352</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>21176.91783511972</v>
+      </c>
+      <c r="K4" s="3">
         <v>43186.9577547848</v>
       </c>
-      <c r="G4" s="3">
+      <c r="L4" s="3">
         <v>284.1247220709527</v>
       </c>
-      <c r="H4" s="3">
-        <v>650.5808076401024</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="M4" s="3">
+        <v>650.5808076401025</v>
+      </c>
+      <c r="N4" s="3">
         <v>1.087396962410123</v>
       </c>
-      <c r="J4" s="3">
+      <c r="O4" s="3">
         <v>5087.076865717208</v>
       </c>
-      <c r="K4" s="3">
-        <v>21.28348419490777</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="P4" s="3">
+        <v>21.28348419490776</v>
+      </c>
+      <c r="Q4" s="3">
         <v>15.01968006252796</v>
       </c>
-      <c r="M4" s="3">
+      <c r="R4" s="3">
         <v>1.011042153300025</v>
       </c>
-      <c r="N4" s="3">
+      <c r="S4" s="3">
         <v>84.0771316599004</v>
       </c>
-      <c r="O4" s="1">
+      <c r="T4" s="1">
         <v>2208</v>
       </c>
-      <c r="P4" s="1">
+      <c r="U4" s="1">
         <v>14.52631578947368</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="V4" s="1">
         <v>31.86830254134198</v>
       </c>
-      <c r="R4" s="1">
+      <c r="W4" s="1">
         <v>1</v>
       </c>
-      <c r="S4" s="1">
+      <c r="X4" s="1">
         <v>208</v>
       </c>
-      <c r="T4">
+      <c r="Y4">
         <v>2016</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <v>2023</v>
       </c>
     </row>

--- a/dados/csv/2023/analise_descritiva/dados/panorama.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/panorama.xlsx
@@ -757,10 +757,10 @@
         <v>165199.0578149446</v>
       </c>
       <c r="G4" s="3">
-        <v>1205.832538795216</v>
+        <v>1086.835906677267</v>
       </c>
       <c r="H4" s="3">
-        <v>2163.288658625352</v>
+        <v>2084.495516178294</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
